--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/B/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/B/20/seed5/result_data_RandomForest.xlsx
@@ -586,7 +586,7 @@
         <v>-21.2</v>
       </c>
       <c r="B11" t="n">
-        <v>6.038099999999999</v>
+        <v>6.3695</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
@@ -600,7 +600,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.979699999999997</v>
+        <v>4.956499999999997</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -642,7 +642,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>4.989999999999994</v>
+        <v>5.245499999999995</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -810,7 +810,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.087400000000001</v>
+        <v>6.229900000000002</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.463099999999998</v>
+        <v>5.561999999999999</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -866,7 +866,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.033599999999998</v>
+        <v>5.3453</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -880,7 +880,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>6.5492</v>
+        <v>6.519299999999996</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -936,7 +936,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>9.495400000000009</v>
+        <v>9.425200000000007</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -964,7 +964,7 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>4.770899999999997</v>
+        <v>4.747699999999996</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
@@ -1076,7 +1076,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>5.994400000000004</v>
+        <v>6.234600000000001</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1188,7 +1188,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.979000000000002</v>
+        <v>5.033800000000006</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1202,7 +1202,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.839099999999998</v>
+        <v>6.366099999999998</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1216,7 +1216,7 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>4.645799999999997</v>
+        <v>4.516299999999994</v>
       </c>
       <c r="C56" t="n">
         <v>-13.63</v>
@@ -1370,7 +1370,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.480799999999993</v>
+        <v>5.653099999999995</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1398,7 +1398,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.345999999999993</v>
+        <v>5.553299999999995</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1440,7 +1440,7 @@
         <v>-21.62</v>
       </c>
       <c r="B72" t="n">
-        <v>5.252600000000002</v>
+        <v>5.250000000000004</v>
       </c>
       <c r="C72" t="n">
         <v>-11.2</v>
@@ -1454,7 +1454,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>8.837799999999994</v>
+        <v>8.9551</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1594,7 +1594,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.320399999999996</v>
+        <v>5.324699999999996</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1636,7 +1636,7 @@
         <v>-22.27</v>
       </c>
       <c r="B86" t="n">
-        <v>5.350700000000001</v>
+        <v>5.4256</v>
       </c>
       <c r="C86" t="n">
         <v>-14.09</v>
@@ -1706,7 +1706,7 @@
         <v>-21.82</v>
       </c>
       <c r="B91" t="n">
-        <v>4.978599999999994</v>
+        <v>5.032499999999994</v>
       </c>
       <c r="C91" t="n">
         <v>-12.06</v>
@@ -1734,7 +1734,7 @@
         <v>-21.49</v>
       </c>
       <c r="B93" t="n">
-        <v>5.490499999999996</v>
+        <v>5.547999999999999</v>
       </c>
       <c r="C93" t="n">
         <v>-10.09</v>
@@ -1818,7 +1818,7 @@
         <v>-21.32</v>
       </c>
       <c r="B99" t="n">
-        <v>5.410899999999998</v>
+        <v>5.5066</v>
       </c>
       <c r="C99" t="n">
         <v>-13.93</v>
@@ -1888,7 +1888,7 @@
         <v>-19.85</v>
       </c>
       <c r="B104" t="n">
-        <v>9.546100000000003</v>
+        <v>9.527599999999996</v>
       </c>
       <c r="C104" t="n">
         <v>-11.07</v>
@@ -1902,7 +1902,7 @@
         <v>-20.36</v>
       </c>
       <c r="B105" t="n">
-        <v>8.332000000000003</v>
+        <v>8.305300000000006</v>
       </c>
       <c r="C105" t="n">
         <v>-12</v>
